--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>URLS</t>
   </si>
@@ -40,9 +40,6 @@
     <t>https://arstechnica.com/science/2024/05/when-warm-blooded-dinosaurs-first-roamed-the-earth/</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.palmbeachpost.com/story/opinion/columns/2024/05/11/florida-climate-change-bill-solar-hurricane-insurance/73631363007/</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>https://phys.org/news/2024-05-kenyan-fishers-climate.html</t>
-  </si>
-  <si>
-    <t>according to a new study</t>
   </si>
   <si>
     <t>Kathryn Fiorella</t>
@@ -176,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -186,9 +180,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -495,16 +486,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="140.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="52.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="188.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="140.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="52.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="188.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="38.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -537,17 +528,13 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -555,121 +542,111 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
